--- a/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6193</v>
+        <v>5826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01566718871139207</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08299057627666644</v>
+        <v>0.0780776467028747</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>3539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8066</v>
+        <v>7990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1000041936572587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02528246969299707</v>
+        <v>0.02535021797988822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2279360578368356</v>
+        <v>0.22580822999186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -828,19 +828,19 @@
         <v>5741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2184</v>
+        <v>2211</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11659</v>
+        <v>11591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1463288696197506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05565791198426821</v>
+        <v>0.05634964174723565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2971866653154516</v>
+        <v>0.2954525099354752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -849,19 +849,19 @@
         <v>9279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4563</v>
+        <v>4386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16445</v>
+        <v>16301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1243602487119168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06115746933884642</v>
+        <v>0.05877811324581364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2203897245043057</v>
+        <v>0.2184580865993012</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>31847</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27320</v>
+        <v>27396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34491</v>
+        <v>34489</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8999958063427412</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7720639421631644</v>
+        <v>0.77419177000814</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9747175303070029</v>
+        <v>0.9746497820201118</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -899,19 +899,19 @@
         <v>32321</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25893</v>
+        <v>26117</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36385</v>
+        <v>36758</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8238724852930335</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6600072571375342</v>
+        <v>0.6657165223856003</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9274497468579062</v>
+        <v>0.9369522128277432</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>66</v>
@@ -920,19 +920,19 @@
         <v>64169</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56683</v>
+        <v>55830</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69231</v>
+        <v>69251</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8599725625766912</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7596461247965635</v>
+        <v>0.7482186304980665</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9278201019688261</v>
+        <v>0.9280910458404575</v>
       </c>
     </row>
     <row r="7">
@@ -1037,19 +1037,19 @@
         <v>6464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2874</v>
+        <v>2360</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12808</v>
+        <v>13336</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06604618534627711</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02936205405027334</v>
+        <v>0.02410962648620213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1308607508552519</v>
+        <v>0.1362595558371713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1058,19 +1058,19 @@
         <v>6464</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2818</v>
+        <v>2401</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13279</v>
+        <v>13807</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03928947577226223</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0171261578874606</v>
+        <v>0.01459165632123113</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08070901091867405</v>
+        <v>0.08391547016530827</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6895</v>
+        <v>6742</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0292850159986555</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1034425288680421</v>
+        <v>0.1011532929670146</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1108,19 +1108,19 @@
         <v>3925</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1670</v>
+        <v>1006</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10395</v>
+        <v>9389</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04009803351779286</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01705884945924294</v>
+        <v>0.01027566119810594</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1062099104992642</v>
+        <v>0.09593097111398538</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1129,19 +1129,19 @@
         <v>5877</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2191</v>
+        <v>2081</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12765</v>
+        <v>12174</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03571745093211592</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01331547154495678</v>
+        <v>0.01264990264651893</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07758431458347394</v>
+        <v>0.07399016493931118</v>
       </c>
     </row>
     <row r="10">
@@ -1158,7 +1158,7 @@
         <v>64702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59759</v>
+        <v>59912</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66654</v>
@@ -1167,7 +1167,7 @@
         <v>0.9707149840013445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8965574711319584</v>
+        <v>0.8988467070329855</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1179,19 +1179,19 @@
         <v>87486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79726</v>
+        <v>79453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92764</v>
+        <v>92592</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.89385578113593</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8145654657742031</v>
+        <v>0.8117821965588025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9477848590023806</v>
+        <v>0.9460221247544259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1200,19 +1200,19 @@
         <v>152188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143710</v>
+        <v>143604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158026</v>
+        <v>158097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9249930732956219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8734633633336629</v>
+        <v>0.8728217958178561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9604729235775689</v>
+        <v>0.9609047648912366</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1325,19 +1325,19 @@
         <v>4576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10407</v>
+        <v>11513</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05478832645033306</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01387958184081006</v>
+        <v>0.01373091619590962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1246062950215043</v>
+        <v>0.137844334073633</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1346,19 +1346,19 @@
         <v>5525</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2180</v>
+        <v>2057</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11797</v>
+        <v>11301</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04109270065692445</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01621454660468473</v>
+        <v>0.01529665218948927</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08773829666244003</v>
+        <v>0.08404927978884495</v>
       </c>
     </row>
     <row r="13">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5364</v>
+        <v>5516</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02148310593983907</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.105291290629181</v>
+        <v>0.1082777382366483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1396,19 +1396,19 @@
         <v>6394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2814</v>
+        <v>2619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13418</v>
+        <v>13345</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07655482842435055</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0336928199586633</v>
+        <v>0.03136241551868958</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1606565319353123</v>
+        <v>0.1597798729590587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1417,19 +1417,19 @@
         <v>7488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3148</v>
+        <v>3173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14839</v>
+        <v>13882</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05569123993765372</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02341517674758651</v>
+        <v>0.02360019267465666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1103599215943034</v>
+        <v>0.1032427057163002</v>
       </c>
     </row>
     <row r="14">
@@ -1446,7 +1446,7 @@
         <v>48896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43812</v>
+        <v>43872</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1455,7 +1455,7 @@
         <v>0.9598796690096297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8600714639383885</v>
+        <v>0.8612424820394662</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1467,19 +1467,19 @@
         <v>72551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64403</v>
+        <v>64045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77983</v>
+        <v>77836</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8686568451253164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7711031970062131</v>
+        <v>0.7668174046224701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9336970114028527</v>
+        <v>0.9319354308804403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -1488,19 +1488,19 @@
         <v>121447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113370</v>
+        <v>113290</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>127068</v>
+        <v>127020</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9032160594054218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8431422842577956</v>
+        <v>0.8425470857676405</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9450174854143077</v>
+        <v>0.94466415914569</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7290</v>
+        <v>7392</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02882471097459838</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09809266672775591</v>
+        <v>0.09947209973333902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1634,19 +1634,19 @@
         <v>2973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8099</v>
+        <v>8987</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0229667837477924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006429006294295341</v>
+        <v>0.006436505490676941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06257376839623746</v>
+        <v>0.06942817398396756</v>
       </c>
     </row>
     <row r="17">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4597</v>
+        <v>4473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01632696779018995</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0834025005103434</v>
+        <v>0.08113976588852313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1684,19 +1684,19 @@
         <v>10406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5546</v>
+        <v>5723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17971</v>
+        <v>18053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.14002795539704</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07463386900255418</v>
+        <v>0.07701541034453317</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2418296958699823</v>
+        <v>0.2429271525143508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1705,19 +1705,19 @@
         <v>11306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6199</v>
+        <v>6241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19165</v>
+        <v>18777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08734798057941197</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04789031865990202</v>
+        <v>0.04821748941531162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.148064517483009</v>
+        <v>0.1450714660162824</v>
       </c>
     </row>
     <row r="18">
@@ -1734,7 +1734,7 @@
         <v>53391</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49916</v>
+        <v>49702</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>55122</v>
@@ -1743,7 +1743,7 @@
         <v>0.9686036691789711</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9055564114729474</v>
+        <v>0.9016812579677366</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1755,19 +1755,19 @@
         <v>61765</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53816</v>
+        <v>53557</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67136</v>
+        <v>66974</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8311473336283617</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7241819357506342</v>
+        <v>0.7206911123582963</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9034153049821936</v>
+        <v>0.9012381150306407</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -1776,19 +1776,19 @@
         <v>115157</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>107102</v>
+        <v>107264</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>120820</v>
+        <v>121052</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8896852356727957</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8274530315217542</v>
+        <v>0.8287052709449796</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9334322022077209</v>
+        <v>0.9352266527914245</v>
       </c>
     </row>
     <row r="19">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4081</v>
+        <v>4557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02957935006790525</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1390717536214151</v>
+        <v>0.1552940388705714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1901,19 +1901,19 @@
         <v>3902</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1108</v>
+        <v>931</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9153</v>
+        <v>9034</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09459125613603847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02686431290216696</v>
+        <v>0.02258030271029931</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2219061054341933</v>
+        <v>0.2190231150175664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1922,19 +1922,19 @@
         <v>4770</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1777</v>
+        <v>1840</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10214</v>
+        <v>10560</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0675643208129893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02516984283991607</v>
+        <v>0.02607133336255604</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.144689429308123</v>
+        <v>0.1495950418416643</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>4281</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1621</v>
+        <v>1659</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8904</v>
+        <v>8634</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05522834801014413</v>
+        <v>0.05651377793047158</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.303416351280698</v>
+        <v>0.2942028246229899</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1972,19 +1972,19 @@
         <v>3437</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8158</v>
+        <v>8167</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08333284944021735</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0</v>
+        <v>0.0268546625187984</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1977991369163623</v>
+        <v>0.1979969756108929</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1993,19 +1993,19 @@
         <v>7718</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3454</v>
+        <v>3615</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14015</v>
+        <v>14301</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.109335532179981</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04892807990811874</v>
+        <v>0.05121166467224333</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1985353624319389</v>
+        <v>0.2025790830341015</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>24198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19541</v>
+        <v>19718</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27501</v>
+        <v>26967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.82453968145467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6658561825025285</v>
+        <v>0.6719080419530156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.937105589083718</v>
+        <v>0.9189000588551738</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2043,19 +2043,19 @@
         <v>33907</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28427</v>
+        <v>27275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38057</v>
+        <v>38086</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8220758944237442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6892157377755833</v>
+        <v>0.6612726440992913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9226840709298686</v>
+        <v>0.9233934005343905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -2064,19 +2064,19 @@
         <v>58105</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51045</v>
+        <v>50092</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63777</v>
+        <v>62951</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8231001470070297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7230923836719743</v>
+        <v>0.709594476178936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9034414316587688</v>
+        <v>0.8917494004504175</v>
       </c>
     </row>
     <row r="23">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7615</v>
+        <v>8689</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03586827583082461</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1083104267173746</v>
+        <v>0.1235824521043216</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8783</v>
+        <v>7368</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02146166038163274</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0747472288575398</v>
+        <v>0.06270232390434531</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>3687</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8216</v>
+        <v>8298</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0781271267708422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01990840246924732</v>
+        <v>0.02003665672300259</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1740835877556036</v>
+        <v>0.1758116390579784</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2252,19 +2252,19 @@
         <v>8026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3628</v>
+        <v>3529</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14710</v>
+        <v>14409</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1141558427208888</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05160265609151416</v>
+        <v>0.05019247598469868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2092143048499797</v>
+        <v>0.2049348142176998</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2273,19 +2273,19 @@
         <v>11714</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6046</v>
+        <v>6340</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20026</v>
+        <v>19504</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09968478595003552</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05145133728871776</v>
+        <v>0.05395842557871892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1704250912127</v>
+        <v>0.1659859162833428</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>43509</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38980</v>
+        <v>38898</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46256</v>
+        <v>46250</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9218728732291578</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.825916412244396</v>
+        <v>0.8241883609420217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9800915975307526</v>
+        <v>0.9799633432769974</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -2323,19 +2323,19 @@
         <v>59761</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51632</v>
+        <v>52607</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64715</v>
+        <v>64801</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8499758814482866</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7343553338372685</v>
+        <v>0.7482311780317359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9204379937477829</v>
+        <v>0.9216657675629353</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>103</v>
@@ -2344,19 +2344,19 @@
         <v>103271</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94744</v>
+        <v>94969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109722</v>
+        <v>109251</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8788535536683317</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8062865375230939</v>
+        <v>0.8082049089725923</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9337592907371238</v>
+        <v>0.9297490054352767</v>
       </c>
     </row>
     <row r="27">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5152</v>
+        <v>6024</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01566910267041121</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04863374361914106</v>
+        <v>0.05686681000103794</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6935</v>
+        <v>6849</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01682135662956795</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05921123789694152</v>
+        <v>0.05848147436316496</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2490,19 +2490,19 @@
         <v>3630</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8423</v>
+        <v>9430</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01627414139124574</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004040561454438536</v>
+        <v>0.004062448570498126</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03776439882464764</v>
+        <v>0.04227867667640996</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>5517</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1856</v>
+        <v>1896</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11075</v>
+        <v>11152</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05208288241934658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01751671533228222</v>
+        <v>0.01789548929197909</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1045480284448517</v>
+        <v>0.1052828408709987</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2540,19 +2540,19 @@
         <v>8028</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14954</v>
+        <v>15228</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06854746001953857</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0318564946836734</v>
+        <v>0.03185041220468481</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1276801196973434</v>
+        <v>0.1300190581818374</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2561,19 +2561,19 @@
         <v>13545</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7812</v>
+        <v>7659</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22470</v>
+        <v>22670</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06072829161159742</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03502475851406277</v>
+        <v>0.03433793967985177</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1007420331726449</v>
+        <v>0.1016368625947544</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>98751</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>92766</v>
+        <v>92952</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>102537</v>
+        <v>102506</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9322480149102422</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.875746646800403</v>
+        <v>0.8775031520848388</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9679831167665981</v>
+        <v>0.9676934304407542</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>107</v>
@@ -2611,19 +2611,19 @@
         <v>107123</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>100313</v>
+        <v>99221</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112475</v>
+        <v>111864</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9146311833508934</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8564914765243556</v>
+        <v>0.8471629669767278</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9603305857408101</v>
+        <v>0.9551180083464571</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>207</v>
@@ -2632,19 +2632,19 @@
         <v>205874</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>197251</v>
+        <v>196017</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>212465</v>
+        <v>212677</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9229975669971568</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8843414805421334</v>
+        <v>0.8788073987305901</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9525463946766918</v>
+        <v>0.9534994284574987</v>
       </c>
     </row>
     <row r="31">
@@ -2736,19 +2736,19 @@
         <v>3036</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8025</v>
+        <v>8022</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02712968890850236</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008285227793293099</v>
+        <v>0.008542873575226905</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07171809379472266</v>
+        <v>0.07169360632152857</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2757,19 +2757,19 @@
         <v>8509</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3701</v>
+        <v>3643</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15285</v>
+        <v>16935</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05552981233209014</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02415540680225706</v>
+        <v>0.02377391663325503</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09975242721447126</v>
+        <v>0.1105240998961828</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -2778,19 +2778,19 @@
         <v>11544</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6487</v>
+        <v>6098</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19895</v>
+        <v>19292</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04354357247745974</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02446700351733718</v>
+        <v>0.02300227630390668</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0750432132771747</v>
+        <v>0.07276729303979552</v>
       </c>
     </row>
     <row r="33">
@@ -2807,19 +2807,19 @@
         <v>9332</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4656</v>
+        <v>4693</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15674</v>
+        <v>16703</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08340501694417334</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04161020883299189</v>
+        <v>0.0419404473193018</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1400809222258756</v>
+        <v>0.1492782668177772</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2828,19 +2828,19 @@
         <v>8268</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3614</v>
+        <v>3673</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>15924</v>
+        <v>16023</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0539626937004511</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0235832472299959</v>
+        <v>0.0239727696728247</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1039223617251828</v>
+        <v>0.1045720785354973</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>17</v>
@@ -2849,19 +2849,19 @@
         <v>17601</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10197</v>
+        <v>10321</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>27225</v>
+        <v>26823</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06638879280619338</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03846024958285141</v>
+        <v>0.03892936715549219</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1026903627868103</v>
+        <v>0.1011756662441313</v>
       </c>
     </row>
     <row r="34">
@@ -2878,19 +2878,19 @@
         <v>99525</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>91625</v>
+        <v>91068</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>105189</v>
+        <v>104900</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8894652941473243</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8188626388764531</v>
+        <v>0.8138891480633414</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9400814721314164</v>
+        <v>0.9375006918816305</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>129</v>
@@ -2899,19 +2899,19 @@
         <v>136448</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>127144</v>
+        <v>126177</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>143342</v>
+        <v>143086</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8905074939674588</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8297861849285949</v>
+        <v>0.8234747233481712</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9354971982353064</v>
+        <v>0.9338303801678705</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>232</v>
@@ -2920,19 +2920,19 @@
         <v>235973</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>224528</v>
+        <v>224665</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>245123</v>
+        <v>244940</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8900676347163469</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8468970283272953</v>
+        <v>0.8474135395222311</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9245792988468371</v>
+        <v>0.923890484979958</v>
       </c>
     </row>
     <row r="35">
@@ -3024,19 +3024,19 @@
         <v>7344</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2856</v>
+        <v>3512</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14771</v>
+        <v>13499</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01461493619098414</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005683176629207141</v>
+        <v>0.006990232245534049</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02939722743494017</v>
+        <v>0.02686600697305869</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>30</v>
@@ -3045,19 +3045,19 @@
         <v>31253</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20943</v>
+        <v>20993</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>44553</v>
+        <v>43463</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04617533731179114</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03094195604695566</v>
+        <v>0.03101566690937876</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06582499424585062</v>
+        <v>0.06421435391764306</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -3066,19 +3066,19 @@
         <v>38597</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27882</v>
+        <v>27584</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>53861</v>
+        <v>52078</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0327284441877316</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02364271731298364</v>
+        <v>0.02338981284633043</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04567174519857223</v>
+        <v>0.04415980659733689</v>
       </c>
     </row>
     <row r="37">
@@ -3095,19 +3095,19 @@
         <v>30303</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>21130</v>
+        <v>22376</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>40417</v>
+        <v>42056</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06030845733671672</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04205260445069006</v>
+        <v>0.04453212912544078</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0804378692588739</v>
+        <v>0.08369858104298319</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>50</v>
@@ -3116,19 +3116,19 @@
         <v>54225</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>41400</v>
+        <v>41935</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>69148</v>
+        <v>71939</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08011508738320543</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06116622583955018</v>
+        <v>0.06195647416248223</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1021634206189723</v>
+        <v>0.1062863539250895</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>83</v>
@@ -3137,19 +3137,19 @@
         <v>84528</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>68025</v>
+        <v>67625</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>103462</v>
+        <v>102420</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07167610600386769</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05768212417657359</v>
+        <v>0.05734327737280949</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08773091993365999</v>
+        <v>0.08684753945659623</v>
       </c>
     </row>
     <row r="38">
@@ -3166,19 +3166,19 @@
         <v>464820</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>453051</v>
+        <v>451397</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>474824</v>
+        <v>473541</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9250766064722992</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9016555767652056</v>
+        <v>0.8983638754223793</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9449868527832386</v>
+        <v>0.9424334988480441</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>581</v>
@@ -3187,19 +3187,19 @@
         <v>591363</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>572520</v>
+        <v>571277</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>608416</v>
+        <v>606747</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8737095753050035</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8458693810000837</v>
+        <v>0.8440332120485716</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8989041520112391</v>
+        <v>0.8964377561869297</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1063</v>
@@ -3208,19 +3208,19 @@
         <v>1056183</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1032622</v>
+        <v>1033966</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1075552</v>
+        <v>1076477</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8955954498084007</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8756170014015632</v>
+        <v>0.8767565436789442</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9120192589813941</v>
+        <v>0.9128040430903819</v>
       </c>
     </row>
     <row r="39">
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4967</v>
+        <v>4916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02225763574311793</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1121647147678203</v>
+        <v>0.1110177278854294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3577,19 +3577,19 @@
         <v>9591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5230</v>
+        <v>5088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16076</v>
+        <v>16365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.196164504093237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1069627886982969</v>
+        <v>0.1040541512918847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3287932778525987</v>
+        <v>0.3346963512827359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -3598,19 +3598,19 @@
         <v>10577</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5409</v>
+        <v>5471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18036</v>
+        <v>17895</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1135163764267678</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0580477311587923</v>
+        <v>0.05872010527567319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1935749716948678</v>
+        <v>0.192055889458623</v>
       </c>
     </row>
     <row r="5">
@@ -3627,19 +3627,19 @@
         <v>2949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7595</v>
+        <v>7841</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06660711726899364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02061062804141147</v>
+        <v>0.02007542502093979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1715272899640477</v>
+        <v>0.1770701095931833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -3648,19 +3648,19 @@
         <v>8479</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4136</v>
+        <v>4014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14723</v>
+        <v>14872</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1734193870777116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08459849845567582</v>
+        <v>0.08209214659290093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3011155613952632</v>
+        <v>0.3041726951971469</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -3669,19 +3669,19 @@
         <v>11429</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5943</v>
+        <v>5588</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18380</v>
+        <v>18294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1226575385363211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06378212584851325</v>
+        <v>0.05997184990899274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1972628830280683</v>
+        <v>0.1963387310344542</v>
       </c>
     </row>
     <row r="6">
@@ -3698,19 +3698,19 @@
         <v>40346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35190</v>
+        <v>35438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43288</v>
+        <v>43301</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9111352469878884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7947062287471888</v>
+        <v>0.8002950296239618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9775741555742191</v>
+        <v>0.9778788898662897</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -3719,19 +3719,19 @@
         <v>30824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24241</v>
+        <v>22847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37105</v>
+        <v>38024</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6304161088290514</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4957883808526105</v>
+        <v>0.4672782329145532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7588949411122524</v>
+        <v>0.7776837696568578</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>66</v>
@@ -3740,19 +3740,19 @@
         <v>71169</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62240</v>
+        <v>62264</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78522</v>
+        <v>79033</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7638260850369111</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6679944398873071</v>
+        <v>0.6682527241902038</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.842741444295069</v>
+        <v>0.8482205796524264</v>
       </c>
     </row>
     <row r="7">
@@ -3844,19 +3844,19 @@
         <v>6456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2120</v>
+        <v>2182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14752</v>
+        <v>15319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08151657046770834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02676962839035989</v>
+        <v>0.02754681828637252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1862606083913648</v>
+        <v>0.1934084290199201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3865,19 +3865,19 @@
         <v>14295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7875</v>
+        <v>7787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24065</v>
+        <v>23597</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1400183869257893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07713117755070073</v>
+        <v>0.07627156999220054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2357202500186669</v>
+        <v>0.2311340818938651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -3886,19 +3886,19 @@
         <v>20751</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12180</v>
+        <v>12453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32320</v>
+        <v>31511</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1144606918254514</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06718021210826937</v>
+        <v>0.06869006847109686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1782700918954116</v>
+        <v>0.1738093148167396</v>
       </c>
     </row>
     <row r="9">
@@ -3915,19 +3915,19 @@
         <v>4192</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12248</v>
+        <v>13457</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05292326920285561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01307208784452542</v>
+        <v>0.01319810650159338</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1546381420655548</v>
+        <v>0.1699051751277421</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -3936,19 +3936,19 @@
         <v>9801</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4430</v>
+        <v>4549</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17399</v>
+        <v>16923</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09599614319637138</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04339490556331262</v>
+        <v>0.04455928353639276</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.170422192801118</v>
+        <v>0.1657591654898891</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -3957,19 +3957,19 @@
         <v>13992</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7756</v>
+        <v>7559</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23308</v>
+        <v>23326</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07717889191648417</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04278087029675598</v>
+        <v>0.04169421658818337</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1285655755732108</v>
+        <v>0.1286628587190715</v>
       </c>
     </row>
     <row r="10">
@@ -3986,19 +3986,19 @@
         <v>68555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59674</v>
+        <v>59356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74422</v>
+        <v>74761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8655601603294361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.753434806917649</v>
+        <v>0.7494101586691065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9396398181338358</v>
+        <v>0.9439219867433954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -4007,19 +4007,19 @@
         <v>77998</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67559</v>
+        <v>67417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86338</v>
+        <v>86080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7639854698778393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6617392617876804</v>
+        <v>0.6603450819559215</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8456769664865857</v>
+        <v>0.8431500481926478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -4028,19 +4028,19 @@
         <v>146553</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132932</v>
+        <v>133805</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157403</v>
+        <v>156856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8083604162580644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7332334931406906</v>
+        <v>0.7380458313616745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8682074994602599</v>
+        <v>0.8651901166381449</v>
       </c>
     </row>
     <row r="11">
@@ -4132,19 +4132,19 @@
         <v>4036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9074</v>
+        <v>9239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07240623515502032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01793144079388883</v>
+        <v>0.01787853227004208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1627884924178023</v>
+        <v>0.1657490070725487</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -4153,19 +4153,19 @@
         <v>10894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5407</v>
+        <v>5493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18396</v>
+        <v>18533</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1362261624345946</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06761382675824928</v>
+        <v>0.06869132301322518</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2300462081794559</v>
+        <v>0.2317507573359383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -4174,19 +4174,19 @@
         <v>14930</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8563</v>
+        <v>8643</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23845</v>
+        <v>23506</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.11001248207687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06310044129892027</v>
+        <v>0.06368601999690854</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1757024539300234</v>
+        <v>0.1732096037265376</v>
       </c>
     </row>
     <row r="13">
@@ -4203,19 +4203,19 @@
         <v>3118</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8106</v>
+        <v>7567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05594189363138363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01744558208471282</v>
+        <v>0.01774576731198576</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1454253191062277</v>
+        <v>0.1357501898148229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4224,19 +4224,19 @@
         <v>5384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2094</v>
+        <v>2068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11545</v>
+        <v>11617</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06732608321823044</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02618810136435834</v>
+        <v>0.02586547653059508</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1443710125945183</v>
+        <v>0.1452749850298191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4245,19 +4245,19 @@
         <v>8502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4144</v>
+        <v>4243</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16054</v>
+        <v>15244</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06265009062967652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03053295592547211</v>
+        <v>0.03126386697940265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1182983976208772</v>
+        <v>0.1123272377423262</v>
       </c>
     </row>
     <row r="14">
@@ -4274,19 +4274,19 @@
         <v>48588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42438</v>
+        <v>42370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52661</v>
+        <v>52723</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.871651871213596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7613210025950714</v>
+        <v>0.7601076956284105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9447281115281896</v>
+        <v>0.945832571581761</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -4295,19 +4295,19 @@
         <v>63690</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56150</v>
+        <v>55169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70398</v>
+        <v>70161</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.796447754347175</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7021588899094739</v>
+        <v>0.6898845312894909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8803265969405575</v>
+        <v>0.8773627160682687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -4316,19 +4316,19 @@
         <v>112278</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101909</v>
+        <v>101878</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120042</v>
+        <v>119842</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8273374272934535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.750934705887946</v>
+        <v>0.7507022781249316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8845450618993517</v>
+        <v>0.8830726717572114</v>
       </c>
     </row>
     <row r="15">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7407</v>
+        <v>6695</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03331429869403105</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1156840597070224</v>
+        <v>0.1045580919609511</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4441,19 +4441,19 @@
         <v>4389</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10023</v>
+        <v>10053</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05128730619830589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01354563608451742</v>
+        <v>0.01336379108375245</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1171322596575882</v>
+        <v>0.117473248434755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4462,19 +4462,19 @@
         <v>6522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2316</v>
+        <v>2978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14249</v>
+        <v>13385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04359509588152268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01548253564315926</v>
+        <v>0.01990320750170409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09524391917705086</v>
+        <v>0.08947378521314499</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>5309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2062</v>
+        <v>2037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11742</v>
+        <v>11165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08291688093091859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03220669026686961</v>
+        <v>0.03182028104738459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1833889411684057</v>
+        <v>0.1743695554913511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4512,19 +4512,19 @@
         <v>7370</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14106</v>
+        <v>13654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08612766272645456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03679299855554452</v>
+        <v>0.03681729025407005</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.16483880815341</v>
+        <v>0.1595522615507948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -4533,19 +4533,19 @@
         <v>12679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7181</v>
+        <v>7147</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20865</v>
+        <v>21851</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08475349043799993</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04799984113506377</v>
+        <v>0.04777037707809219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1394687834826132</v>
+        <v>0.1460630369763667</v>
       </c>
     </row>
     <row r="18">
@@ -4562,19 +4562,19 @@
         <v>56586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50026</v>
+        <v>49722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60915</v>
+        <v>60786</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8837688203750503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7813170712946133</v>
+        <v>0.7765659662727883</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9513812095241274</v>
+        <v>0.9493660182270722</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -4583,19 +4583,19 @@
         <v>73815</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66396</v>
+        <v>66412</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79350</v>
+        <v>79259</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8625850310752395</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7758856581239102</v>
+        <v>0.7760779686077999</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9272660662668092</v>
+        <v>0.926207528186337</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>122</v>
@@ -4604,19 +4604,19 @@
         <v>130401</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>120966</v>
+        <v>121358</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>137664</v>
+        <v>137884</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8716514136804774</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8085886863445894</v>
+        <v>0.8112042849713011</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9202019602148773</v>
+        <v>0.9216706390850545</v>
       </c>
     </row>
     <row r="19">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7606</v>
+        <v>4904</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03481480277839448</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2405989109158778</v>
+        <v>0.1551175797519506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -4729,19 +4729,19 @@
         <v>4084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>989</v>
+        <v>1096</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9162</v>
+        <v>9313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08192569318546956</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01984013677744014</v>
+        <v>0.02198810205323386</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1837637650623279</v>
+        <v>0.1868009996217072</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -4750,19 +4750,19 @@
         <v>5185</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1973</v>
+        <v>1957</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10826</v>
+        <v>11483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06364492923910087</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02421770382741845</v>
+        <v>0.02402314790147673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1328870072276723</v>
+        <v>0.1409503920361588</v>
       </c>
     </row>
     <row r="21">
@@ -4779,19 +4779,19 @@
         <v>3348</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1034</v>
+        <v>982</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8342</v>
+        <v>9017</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1059011917629047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03272127453856762</v>
+        <v>0.0310572207791095</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2638724876816871</v>
+        <v>0.285226137811982</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -4800,19 +4800,19 @@
         <v>3985</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1066</v>
+        <v>1002</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9001</v>
+        <v>9146</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07993905929370869</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02137739873292237</v>
+        <v>0.0201034890864812</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1805367595891167</v>
+        <v>0.1834539158625188</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -4821,19 +4821,19 @@
         <v>7333</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14276</v>
+        <v>14824</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09001332473664012</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04021109072624581</v>
+        <v>0.04026754323731765</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1752416497361207</v>
+        <v>0.1819651917685914</v>
       </c>
     </row>
     <row r="22">
@@ -4850,19 +4850,19 @@
         <v>27164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21742</v>
+        <v>21942</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30413</v>
+        <v>30544</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8592840054587009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6877774614370592</v>
+        <v>0.6940969767880661</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9620650283179433</v>
+        <v>0.9662101661536158</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -4871,19 +4871,19 @@
         <v>41785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35631</v>
+        <v>35377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45911</v>
+        <v>45968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8381352475208218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7146977192149848</v>
+        <v>0.7095913706126786</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9208821550987655</v>
+        <v>0.9220378328366388</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -4892,19 +4892,19 @@
         <v>68949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60691</v>
+        <v>61199</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74445</v>
+        <v>74384</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.846341746024259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7449716952052388</v>
+        <v>0.7512170454333472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9138109102376555</v>
+        <v>0.9130571646932502</v>
       </c>
     </row>
     <row r="23">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7469</v>
+        <v>7437</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04142484387810814</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.144314037349628</v>
+        <v>0.1436879830588168</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -5017,19 +5017,19 @@
         <v>7402</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3180</v>
+        <v>3122</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13747</v>
+        <v>13874</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1054177632542845</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04529189049957874</v>
+        <v>0.04445838163724358</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1957949327712076</v>
+        <v>0.1976074985622419</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -5038,19 +5038,19 @@
         <v>9546</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4241</v>
+        <v>4261</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16977</v>
+        <v>16756</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0782628563903378</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03476935876228854</v>
+        <v>0.03493426974816215</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1391910395804006</v>
+        <v>0.1373843243519477</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>5369</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2151</v>
+        <v>2138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11590</v>
+        <v>11124</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1037408742480649</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04155361877982075</v>
+        <v>0.04130963366110414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2239415934537571</v>
+        <v>0.2149280058820974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -5088,19 +5088,19 @@
         <v>6474</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11935</v>
+        <v>12909</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0922073646728965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03105370037310814</v>
+        <v>0.03108763517248835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1699891512334403</v>
+        <v>0.1838507809987618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -5109,19 +5109,19 @@
         <v>11843</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5879</v>
+        <v>6468</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19289</v>
+        <v>19907</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09710152142306865</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04820096071769742</v>
+        <v>0.05303154997797802</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1581489296669256</v>
+        <v>0.1632143158435842</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>44243</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37823</v>
+        <v>37859</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47518</v>
+        <v>48517</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8548342818738269</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7308027282433714</v>
+        <v>0.731496889557917</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9181100331765779</v>
+        <v>0.9374124541257699</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>56</v>
@@ -5159,19 +5159,19 @@
         <v>56336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49093</v>
+        <v>48799</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61869</v>
+        <v>62648</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.802374872072819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6992131063738172</v>
+        <v>0.6950278935257067</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.881176606087104</v>
+        <v>0.8922630961312004</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>99</v>
@@ -5180,19 +5180,19 @@
         <v>100579</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91296</v>
+        <v>91857</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109045</v>
+        <v>108072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8246356221865936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7485242635437004</v>
+        <v>0.7531253566491561</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8940431819108287</v>
+        <v>0.8860699898074156</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>5215</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12940</v>
+        <v>13251</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04645306701896128</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009391174458880906</v>
+        <v>0.009447073270969882</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1152639073703937</v>
+        <v>0.118034393940966</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -5305,19 +5305,19 @@
         <v>9103</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4035</v>
+        <v>4287</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17379</v>
+        <v>17814</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06412189963731041</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0284252766750982</v>
+        <v>0.03019984908657075</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1224173007255268</v>
+        <v>0.1254837469238345</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -5326,19 +5326,19 @@
         <v>14318</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8308</v>
+        <v>8199</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24849</v>
+        <v>26013</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05631953914814043</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03267831815332306</v>
+        <v>0.03225257986457605</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0977418402269357</v>
+        <v>0.1023242045225553</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>7110</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16271</v>
+        <v>14646</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06333607205392326</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02656034088087852</v>
+        <v>0.02657961689582931</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1449324967834374</v>
+        <v>0.1304611978933358</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -5376,19 +5376,19 @@
         <v>18866</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11701</v>
+        <v>11124</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29496</v>
+        <v>28904</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1328973493330453</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08242251011356853</v>
+        <v>0.0783606107233696</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2077707739265834</v>
+        <v>0.2036014788631564</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -5397,19 +5397,19 @@
         <v>25977</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17226</v>
+        <v>17248</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>38896</v>
+        <v>37920</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.102179860909097</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06775730951926165</v>
+        <v>0.06784687151096738</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1529984567198475</v>
+        <v>0.1491579577103886</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>99938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>90175</v>
+        <v>89205</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>106038</v>
+        <v>105390</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8902108609271154</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8032474958131158</v>
+        <v>0.7946044537986289</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9445506928418748</v>
+        <v>0.9387813012076511</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>104</v>
@@ -5447,19 +5447,19 @@
         <v>113993</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>103322</v>
+        <v>101896</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>122501</v>
+        <v>123143</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8029807510296443</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7278160758993684</v>
+        <v>0.7177683122991358</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8629172804033637</v>
+        <v>0.8674353116154523</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>194</v>
@@ -5468,19 +5468,19 @@
         <v>213931</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>199202</v>
+        <v>200424</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>224916</v>
+        <v>224918</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8415005999427626</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.783561927924996</v>
+        <v>0.7883681973133591</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.884707203480779</v>
+        <v>0.8847175627095138</v>
       </c>
     </row>
     <row r="31">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5273</v>
+        <v>6563</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009096849647954645</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04366814854087196</v>
+        <v>0.05435431737370543</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -5593,19 +5593,19 @@
         <v>9996</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4608</v>
+        <v>4671</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17661</v>
+        <v>18175</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0607974713263769</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02802338957096285</v>
+        <v>0.02840737810393119</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1074165247485667</v>
+        <v>0.1105422663617586</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -5614,19 +5614,19 @@
         <v>11095</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5578</v>
+        <v>5465</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19518</v>
+        <v>19477</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03890530802106502</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01956012807021165</v>
+        <v>0.01916547775150051</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06844324789991316</v>
+        <v>0.06829960869896826</v>
       </c>
     </row>
     <row r="33">
@@ -5643,19 +5643,19 @@
         <v>4402</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11087</v>
+        <v>10168</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03645671801813699</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009349105944978774</v>
+        <v>0.009209854099307553</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09181925778994594</v>
+        <v>0.08420950889211128</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -5664,19 +5664,19 @@
         <v>12423</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6631</v>
+        <v>6859</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>21271</v>
+        <v>21249</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07555989978946689</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04033085724973111</v>
+        <v>0.04171909206157903</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1293737124290315</v>
+        <v>0.1292399878957903</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>15</v>
@@ -5685,19 +5685,19 @@
         <v>16826</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9360</v>
+        <v>10213</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26163</v>
+        <v>26614</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05900200912385947</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03282261606693189</v>
+        <v>0.03581420878616781</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09174724491540182</v>
+        <v>0.09332784009612542</v>
       </c>
     </row>
     <row r="34">
@@ -5714,19 +5714,19 @@
         <v>115251</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>109203</v>
+        <v>108732</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>118610</v>
+        <v>118622</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9544464323339084</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9043600926656794</v>
+        <v>0.9004600913088433</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9822628342713678</v>
+        <v>0.9823618610377216</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>131</v>
@@ -5735,19 +5735,19 @@
         <v>141998</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>132888</v>
+        <v>131032</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>150810</v>
+        <v>149859</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8636426288841562</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8082356449579589</v>
+        <v>0.7969509532881354</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9172409500537237</v>
+        <v>0.9114572970762734</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>232</v>
@@ -5756,19 +5756,19 @@
         <v>257249</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>244775</v>
+        <v>244224</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>267024</v>
+        <v>266077</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9020926828550755</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8583513079825787</v>
+        <v>0.8564178280930544</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9363696401119195</v>
+        <v>0.9330506191573121</v>
       </c>
     </row>
     <row r="35">
@@ -5860,19 +5860,19 @@
         <v>23169</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14748</v>
+        <v>14497</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34654</v>
+        <v>36374</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04140009959390366</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02635255645682084</v>
+        <v>0.02590358745420508</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0619224768128545</v>
+        <v>0.06499493329545651</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>63</v>
@@ -5881,19 +5881,19 @@
         <v>69754</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>53869</v>
+        <v>54005</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>86578</v>
+        <v>87406</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09388439932385256</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07250379418247456</v>
+        <v>0.07268783452829472</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1165283967453074</v>
+        <v>0.1176435140930373</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>83</v>
@@ -5902,19 +5902,19 @@
         <v>92923</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>73994</v>
+        <v>75643</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>112708</v>
+        <v>113347</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07133573773278658</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05680454518144153</v>
+        <v>0.05807037997659724</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08652484652396178</v>
+        <v>0.08701551649876807</v>
       </c>
     </row>
     <row r="37">
@@ -5931,19 +5931,19 @@
         <v>35798</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24755</v>
+        <v>24491</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>50382</v>
+        <v>49110</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06396628166165427</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04423338333675834</v>
+        <v>0.04376155583048146</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09002643765581538</v>
+        <v>0.08775258083303672</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -5952,19 +5952,19 @@
         <v>72783</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58337</v>
+        <v>56640</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91656</v>
+        <v>90763</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09796169023343104</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07851832553004913</v>
+        <v>0.07623425822911185</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1233636188008719</v>
+        <v>0.1221622291704495</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>99</v>
@@ -5973,19 +5973,19 @@
         <v>108581</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>90140</v>
+        <v>88762</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>132409</v>
+        <v>128922</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08335635173259925</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06919955831259772</v>
+        <v>0.06814145227866117</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.101649209468173</v>
+        <v>0.09897223979214088</v>
       </c>
     </row>
     <row r="38">
@@ -6002,19 +6002,19 @@
         <v>500670</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>483917</v>
+        <v>483579</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>514630</v>
+        <v>514774</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.894633618744442</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8646977517011744</v>
+        <v>0.86409459394592</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9195783225516366</v>
+        <v>0.919835544114423</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>564</v>
@@ -6023,19 +6023,19 @@
         <v>600438</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>574699</v>
+        <v>578757</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>620842</v>
+        <v>619559</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8081539104427163</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7735108368886087</v>
+        <v>0.7789730093071955</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8356163290230794</v>
+        <v>0.8338891473275392</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1016</v>
@@ -6044,19 +6044,19 @@
         <v>1101108</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1073333</v>
+        <v>1076362</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1128631</v>
+        <v>1128499</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8453079105346142</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8239850756091881</v>
+        <v>0.826310761424547</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8664369324935739</v>
+        <v>0.8663352958045112</v>
       </c>
     </row>
     <row r="39">
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6423</v>
+        <v>5837</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02279637912799238</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1300452469142142</v>
+        <v>0.1181813639447069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4712</v>
+        <v>6181</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01275315984464738</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05336643909738383</v>
+        <v>0.07001520312777471</v>
       </c>
     </row>
     <row r="5">
@@ -6455,19 +6455,19 @@
         <v>2395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6670</v>
+        <v>5756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06156310490407103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01990805318876049</v>
+        <v>0.01992360700476926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1714790097897197</v>
+        <v>0.1479859452730345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -6476,19 +6476,19 @@
         <v>10209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4439</v>
+        <v>4636</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17821</v>
+        <v>17601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2066925267051309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08988168127817439</v>
+        <v>0.09386752552500373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3608142961157337</v>
+        <v>0.3563584627464115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -6497,19 +6497,19 @@
         <v>12603</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6338</v>
+        <v>6916</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21176</v>
+        <v>21475</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1427540126354415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07179400382348508</v>
+        <v>0.07833098154185529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2398590296338655</v>
+        <v>0.2432438709008718</v>
       </c>
     </row>
     <row r="6">
@@ -6526,19 +6526,19 @@
         <v>36501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32226</v>
+        <v>33140</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38122</v>
+        <v>38121</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.938436895095929</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8285209902102803</v>
+        <v>0.8520140547269656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9800919468112395</v>
+        <v>0.9800763929952307</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -6547,19 +6547,19 @@
         <v>38056</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30979</v>
+        <v>30481</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44160</v>
+        <v>43766</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7705110941668768</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6272254578954597</v>
+        <v>0.6171404674313568</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8940812417785347</v>
+        <v>0.886111925758281</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -6568,19 +6568,19 @@
         <v>74558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65948</v>
+        <v>66000</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>80948</v>
+        <v>80858</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8444928275199112</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7469773471766047</v>
+        <v>0.7475649564911361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9168723661542139</v>
+        <v>0.9158486641587338</v>
       </c>
     </row>
     <row r="7">
@@ -6685,19 +6685,19 @@
         <v>5388</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13170</v>
+        <v>12162</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04676068681053974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01189916274762383</v>
+        <v>0.01181829438798785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1142918702920401</v>
+        <v>0.1055485614076303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -6706,19 +6706,19 @@
         <v>5388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1359</v>
+        <v>1376</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12532</v>
+        <v>14755</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02660510870240814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006711136523401698</v>
+        <v>0.006794165065950373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06187837237814786</v>
+        <v>0.07285572793900028</v>
       </c>
     </row>
     <row r="9">
@@ -6735,19 +6735,19 @@
         <v>4461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1660</v>
+        <v>1746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9633</v>
+        <v>10712</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0511046977197458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0190181243792326</v>
+        <v>0.02000180266922448</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1103450961393681</v>
+        <v>0.1227056757945826</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -6756,19 +6756,19 @@
         <v>13891</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6562</v>
+        <v>7558</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22265</v>
+        <v>22576</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1205506205011322</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05694862965035818</v>
+        <v>0.06559304528967463</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.193229171731204</v>
+        <v>0.1959206698346322</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -6777,19 +6777,19 @@
         <v>18352</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11102</v>
+        <v>11365</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28892</v>
+        <v>28729</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09061687024244237</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05481730213619523</v>
+        <v>0.05611500336681959</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.142662611269847</v>
+        <v>0.1418545954162197</v>
       </c>
     </row>
     <row r="10">
@@ -6806,19 +6806,19 @@
         <v>82834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77662</v>
+        <v>76583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85635</v>
+        <v>85549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9488953022802542</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8896549038606326</v>
+        <v>0.8772943242054175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9809818756207676</v>
+        <v>0.9799981973307756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -6827,19 +6827,19 @@
         <v>95949</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87459</v>
+        <v>86255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104348</v>
+        <v>103848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.832688692688328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7590056357287203</v>
+        <v>0.7485567021422292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9055799331453461</v>
+        <v>0.9012432446281534</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -6848,19 +6848,19 @@
         <v>178783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167733</v>
+        <v>167412</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187907</v>
+        <v>186809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8827780210551495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8282177797763415</v>
+        <v>0.8266326735831125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.927828073686735</v>
+        <v>0.9224091975159663</v>
       </c>
     </row>
     <row r="11">
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6944</v>
+        <v>6435</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03201509763473503</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1092810317898188</v>
+        <v>0.1012582477517043</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6973,19 +6973,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -6994,19 +6994,19 @@
         <v>6512</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2461</v>
+        <v>2425</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14421</v>
+        <v>13989</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04539586399615319</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01715582247655701</v>
+        <v>0.01690299001640013</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1005332259427265</v>
+        <v>0.0975233606855142</v>
       </c>
     </row>
     <row r="13">
@@ -7023,19 +7023,19 @@
         <v>2313</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5795</v>
+        <v>6252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03640606346099778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0</v>
+        <v>0.01136714083732115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09118916462795278</v>
+        <v>0.09838958653840026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5314</v>
+        <v>4986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0121722130493703</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06650696986907691</v>
+        <v>0.06240455930037585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -7065,19 +7065,19 @@
         <v>3286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8723</v>
+        <v>8323</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0229079405624624</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005561477703745974</v>
+        <v>0.005496647586815974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06080980017662916</v>
+        <v>0.05802483079574049</v>
       </c>
     </row>
     <row r="14">
@@ -7094,19 +7094,19 @@
         <v>59198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54459</v>
+        <v>54323</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62051</v>
+        <v>62013</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9315788389042672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8570086820240763</v>
+        <v>0.8548636618927222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9764737339335459</v>
+        <v>0.9758688353069047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -7115,19 +7115,19 @@
         <v>74447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66191</v>
+        <v>67725</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78631</v>
+        <v>78640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9317895349237585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8284507533852863</v>
+        <v>0.8476548666232994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841515535838211</v>
+        <v>0.984267246651363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -7136,19 +7136,19 @@
         <v>133645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124466</v>
+        <v>125971</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138677</v>
+        <v>138755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9316961954413844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8677030303496527</v>
+        <v>0.8781974035213547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9667775495198304</v>
+        <v>0.9673206508317629</v>
       </c>
     </row>
     <row r="15">
@@ -7240,19 +7240,19 @@
         <v>4414</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1667</v>
+        <v>1712</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9134</v>
+        <v>9728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0682023524837812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0257597615686332</v>
+        <v>0.02645506435984965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1411447065715477</v>
+        <v>0.1503309916093958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -7261,19 +7261,19 @@
         <v>4645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13718</v>
+        <v>12808</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05072408165767649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01331715000989806</v>
+        <v>0.01351090011514246</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1498058516800724</v>
+        <v>0.1398627966786895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -7282,19 +7282,19 @@
         <v>9058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4059</v>
+        <v>4305</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16869</v>
+        <v>18057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05796115007890472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02596969027515572</v>
+        <v>0.02754897074920806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1079391192021348</v>
+        <v>0.1155409329964514</v>
       </c>
     </row>
     <row r="17">
@@ -7324,19 +7324,19 @@
         <v>6269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2450</v>
+        <v>2422</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12564</v>
+        <v>14929</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06846344096639381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02675554049304387</v>
+        <v>0.02645178350854331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1371961457889655</v>
+        <v>0.1630250363862254</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -7345,19 +7345,19 @@
         <v>6269</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2460</v>
+        <v>2473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13869</v>
+        <v>13870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04011540748206913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01573882342761099</v>
+        <v>0.01582217136907046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08874008275672567</v>
+        <v>0.08874650511710661</v>
       </c>
     </row>
     <row r="18">
@@ -7374,19 +7374,19 @@
         <v>60298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55578</v>
+        <v>54984</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63045</v>
+        <v>63000</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9317976475162189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8588552934284523</v>
+        <v>0.8496690083906044</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9742402384313669</v>
+        <v>0.9735449356401504</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -7395,19 +7395,19 @@
         <v>80660</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72380</v>
+        <v>71694</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>86395</v>
+        <v>86893</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8808124773759297</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7904033722341529</v>
+        <v>0.7829057683046684</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9434455292648932</v>
+        <v>0.9488858454150545</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -7416,19 +7416,19 @@
         <v>140957</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130760</v>
+        <v>131341</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>148061</v>
+        <v>147714</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9019234424390261</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8366770539974421</v>
+        <v>0.8403936457344447</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9473812233308933</v>
+        <v>0.9451565717939777</v>
       </c>
     </row>
     <row r="19">
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7902</v>
+        <v>6999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04587440217417536</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1563830318654013</v>
+        <v>0.1385001806114741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7219</v>
+        <v>6868</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02503054722505403</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07795307809271025</v>
+        <v>0.07416240627382932</v>
       </c>
     </row>
     <row r="21">
@@ -7583,19 +7583,19 @@
         <v>3303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7676</v>
+        <v>7561</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07850473051686924</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01925129330900575</v>
+        <v>0.01946148417464598</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1824065861916947</v>
+        <v>0.1796892254250038</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -7604,19 +7604,19 @@
         <v>13303</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7153</v>
+        <v>7598</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20649</v>
+        <v>20753</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.263260176261927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1415568763618232</v>
+        <v>0.1503695297419623</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4086367567796619</v>
+        <v>0.4106868023585602</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -7625,19 +7625,19 @@
         <v>16607</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10047</v>
+        <v>9967</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26291</v>
+        <v>25616</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1793132357100098</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1084829501183893</v>
+        <v>0.1076252066501225</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2838859342723721</v>
+        <v>0.2765911712704905</v>
       </c>
     </row>
     <row r="22">
@@ -7654,19 +7654,19 @@
         <v>38777</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34404</v>
+        <v>34519</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41270</v>
+        <v>41261</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9214952694831308</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8175934138083051</v>
+        <v>0.8203107745749961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9807487066909943</v>
+        <v>0.980538515825354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -7675,19 +7675,19 @@
         <v>34911</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26593</v>
+        <v>27076</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41129</v>
+        <v>41360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6908654215638975</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5262675460273391</v>
+        <v>0.5358221746017119</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8139140154645829</v>
+        <v>0.8185000685454973</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -7696,19 +7696,19 @@
         <v>73687</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64035</v>
+        <v>65177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80661</v>
+        <v>81055</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7956562170649362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6914350843335698</v>
+        <v>0.7037621997608716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8709588000497909</v>
+        <v>0.8752115368970291</v>
       </c>
     </row>
     <row r="23">
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4967</v>
+        <v>4937</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03408805658412575</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1025314047774218</v>
+        <v>0.1019011361197742</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7821,19 +7821,19 @@
         <v>4463</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10851</v>
+        <v>9959</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06622265586921486</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01757722400427411</v>
+        <v>0.01764780777171353</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1610194084516249</v>
+        <v>0.1477817006311226</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -7842,19 +7842,19 @@
         <v>6114</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2244</v>
+        <v>2678</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11880</v>
+        <v>12611</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05278276944554763</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01937602482097042</v>
+        <v>0.02311618639665174</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.102558454052849</v>
+        <v>0.1088675058680583</v>
       </c>
     </row>
     <row r="25">
@@ -7871,19 +7871,19 @@
         <v>4991</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1796</v>
+        <v>2326</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10269</v>
+        <v>10041</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1030289973659335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03706858865289432</v>
+        <v>0.04801307636775447</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2119699159599172</v>
+        <v>0.2072566596799319</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -7892,19 +7892,19 @@
         <v>6288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2459</v>
+        <v>2477</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13738</v>
+        <v>12898</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09330457262770767</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03648290193571177</v>
+        <v>0.03676157680522838</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.203858715177987</v>
+        <v>0.1914046547289419</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -7913,19 +7913,19 @@
         <v>11279</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6003</v>
+        <v>6121</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19493</v>
+        <v>19810</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09737168928467185</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05182500955470736</v>
+        <v>0.05284338719589141</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1682847776493557</v>
+        <v>0.1710233519576363</v>
       </c>
     </row>
     <row r="26">
@@ -7942,19 +7942,19 @@
         <v>41803</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35938</v>
+        <v>36643</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45183</v>
+        <v>45245</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8628829460499408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7418244234922596</v>
+        <v>0.7563581596550849</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9326561306631148</v>
+        <v>0.9339292986058093</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -7963,19 +7963,19 @@
         <v>56638</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48059</v>
+        <v>49555</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61840</v>
+        <v>62380</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8404727715030774</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7131668114001356</v>
+        <v>0.7353665018363946</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9176756893971867</v>
+        <v>0.9256885889467172</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -7984,19 +7984,19 @@
         <v>98441</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>89676</v>
+        <v>89879</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>105025</v>
+        <v>105538</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8498455412697805</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7741730252910857</v>
+        <v>0.7759252741513258</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9066893468245413</v>
+        <v>0.9111134363375702</v>
       </c>
     </row>
     <row r="27">
@@ -8088,19 +8088,19 @@
         <v>6395</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2728</v>
+        <v>2678</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12199</v>
+        <v>12181</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05700347921711993</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02431884444867969</v>
+        <v>0.02387252097906421</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1087371010944381</v>
+        <v>0.1085814017498255</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -8109,19 +8109,19 @@
         <v>15258</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8252</v>
+        <v>8327</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24364</v>
+        <v>25020</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1033557541991492</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05589604541296859</v>
+        <v>0.05640595112164789</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1650365665947449</v>
+        <v>0.1694826737510598</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -8130,19 +8130,19 @@
         <v>21653</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13722</v>
+        <v>13270</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32591</v>
+        <v>32105</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08334094188035372</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05281493218242267</v>
+        <v>0.05107425489745984</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1254398273371463</v>
+        <v>0.1235695463910596</v>
       </c>
     </row>
     <row r="29">
@@ -8159,19 +8159,19 @@
         <v>6008</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2146</v>
+        <v>2109</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12176</v>
+        <v>12370</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05355042576414335</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01912945093584967</v>
+        <v>0.01879850235630029</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1085330390682059</v>
+        <v>0.1102631987111951</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -8180,19 +8180,19 @@
         <v>23089</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14452</v>
+        <v>15080</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33865</v>
+        <v>33098</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1564033814358837</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09789924659941705</v>
+        <v>0.1021524119396883</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2294016729030028</v>
+        <v>0.2242060852122743</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -8201,19 +8201,19 @@
         <v>29097</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19219</v>
+        <v>19159</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40681</v>
+        <v>40420</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1119916971118374</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07397354123324251</v>
+        <v>0.07374167030608794</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1565783005978536</v>
+        <v>0.1555755495791484</v>
       </c>
     </row>
     <row r="30">
@@ -8230,19 +8230,19 @@
         <v>99783</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>92134</v>
+        <v>91988</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105405</v>
+        <v>105506</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8894460950187367</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8212659516000292</v>
+        <v>0.8199657649365426</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9395618131409561</v>
+        <v>0.9404632012924395</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>93</v>
@@ -8251,19 +8251,19 @@
         <v>109278</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>96450</v>
+        <v>97218</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>119615</v>
+        <v>119698</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7402408643649671</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.653344878815457</v>
+        <v>0.6585437656983438</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8102620662022386</v>
+        <v>0.8108242870154427</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -8272,19 +8272,19 @@
         <v>209061</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>196064</v>
+        <v>195826</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>221802</v>
+        <v>222439</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8046673610078089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7546436686666962</v>
+        <v>0.753729348102726</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8537066937260029</v>
+        <v>0.8561619987714721</v>
       </c>
     </row>
     <row r="31">
@@ -8376,19 +8376,19 @@
         <v>4261</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>980</v>
+        <v>1554</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10590</v>
+        <v>11931</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03175687774698027</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007306939997592204</v>
+        <v>0.01157892579205502</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07893259956765036</v>
+        <v>0.08892698794637176</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -8400,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9114</v>
+        <v>9355</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01486834752451813</v>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05169894506005176</v>
+        <v>0.0530662737506047</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -8418,19 +8418,19 @@
         <v>6882</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2385</v>
+        <v>2604</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14255</v>
+        <v>14441</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02216677098385662</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007682460618378023</v>
+        <v>0.008387191182123338</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0459157809498858</v>
+        <v>0.04651258405599609</v>
       </c>
     </row>
     <row r="33">
@@ -8447,19 +8447,19 @@
         <v>4941</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1704</v>
+        <v>1749</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10967</v>
+        <v>10792</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03682760430084958</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01270173737192554</v>
+        <v>0.01303522480305613</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08173817280810608</v>
+        <v>0.08044005668221807</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -8468,19 +8468,19 @@
         <v>15023</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7983</v>
+        <v>7752</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25316</v>
+        <v>25252</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08521398074480413</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04528085730504842</v>
+        <v>0.04396929015011503</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1435976880244003</v>
+        <v>0.1432342241065126</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>16</v>
@@ -8489,19 +8489,19 @@
         <v>19964</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12058</v>
+        <v>11659</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>32878</v>
+        <v>31456</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06430367888317431</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03883804608792382</v>
+        <v>0.03755240619991677</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1058997312258901</v>
+        <v>0.1013198029276616</v>
       </c>
     </row>
     <row r="34">
@@ -8518,19 +8518,19 @@
         <v>124966</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>117283</v>
+        <v>117178</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>129804</v>
+        <v>129826</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9314155179521701</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8741517007797799</v>
+        <v>0.8733672827043357</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9674752271158249</v>
+        <v>0.9676342853154249</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>129</v>
@@ -8539,19 +8539,19 @@
         <v>158653</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>148221</v>
+        <v>147353</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>165883</v>
+        <v>166295</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8999176717306777</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8407487091276771</v>
+        <v>0.8358201779190443</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.940927097870116</v>
+        <v>0.9432683575776845</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>261</v>
@@ -8560,19 +8560,19 @@
         <v>283619</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>268918</v>
+        <v>270348</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>292282</v>
+        <v>292535</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9135295501329691</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8661768100010783</v>
+        <v>0.8707834524325536</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9414339874466933</v>
+        <v>0.9422488915967798</v>
       </c>
     </row>
     <row r="35">
@@ -8664,19 +8664,19 @@
         <v>18755</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11715</v>
+        <v>11986</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29182</v>
+        <v>29377</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03171685474501226</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01981163887630655</v>
+        <v>0.02026967337181888</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0493500129903854</v>
+        <v>0.0496802614622126</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -8685,19 +8685,19 @@
         <v>40296</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>28815</v>
+        <v>27712</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>55579</v>
+        <v>58165</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05179917906100211</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03704105968757421</v>
+        <v>0.03562282524950214</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07144518551031055</v>
+        <v>0.07476841738048746</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>51</v>
@@ -8706,19 +8706,19 @@
         <v>59051</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44784</v>
+        <v>45126</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75653</v>
+        <v>77009</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04312642930725259</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03270677846578283</v>
+        <v>0.03295651142911977</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05525132347850564</v>
+        <v>0.05624112845233348</v>
       </c>
     </row>
     <row r="37">
@@ -8735,19 +8735,19 @@
         <v>28413</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19107</v>
+        <v>19242</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39752</v>
+        <v>39016</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04804893956878022</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03231147811661266</v>
+        <v>0.03254012436656681</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06722552999227387</v>
+        <v>0.0659799914810496</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>72</v>
@@ -8756,19 +8756,19 @@
         <v>89044</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>71215</v>
+        <v>69706</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>111540</v>
+        <v>107686</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1144627876226469</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09154418874805764</v>
+        <v>0.08960407876361308</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1433798561876048</v>
+        <v>0.1384261432647763</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>104</v>
@@ -8777,19 +8777,19 @@
         <v>117457</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>97379</v>
+        <v>97042</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>142351</v>
+        <v>138322</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08578131254577454</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07111832908572178</v>
+        <v>0.07087210858115035</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1039621369807169</v>
+        <v>0.1010192761523449</v>
       </c>
     </row>
     <row r="38">
@@ -8806,19 +8806,19 @@
         <v>544160</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>528893</v>
+        <v>531107</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>555927</v>
+        <v>555383</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9202342056862075</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8944161969723875</v>
+        <v>0.8981595853073381</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9401331539797569</v>
+        <v>0.9392131519191167</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>552</v>
@@ -8827,19 +8827,19 @@
         <v>648591</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>624452</v>
+        <v>626192</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>669670</v>
+        <v>670607</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.833738033316351</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8027084273475535</v>
+        <v>0.8049456857445921</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8608350573615716</v>
+        <v>0.8620397062888182</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1127</v>
@@ -8848,19 +8848,19 @@
         <v>1192751</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1166156</v>
+        <v>1166110</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1218164</v>
+        <v>1216752</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8710922581469729</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8516691790151376</v>
+        <v>0.8516361054120309</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8896517075189228</v>
+        <v>0.8886206140863073</v>
       </c>
     </row>
     <row r="39">
@@ -9209,19 +9209,19 @@
         <v>1773</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5128</v>
+        <v>4856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02716522998350936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007247341135168986</v>
+        <v>0.007223091492518704</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07855950269587506</v>
+        <v>0.07438435433696698</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -9230,19 +9230,19 @@
         <v>1773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5236</v>
+        <v>5214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01404761285948368</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003716863692655241</v>
+        <v>0.003732245780993497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04147819116087968</v>
+        <v>0.04130852095788977</v>
       </c>
     </row>
     <row r="5">
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4385</v>
+        <v>4410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01452442622984818</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07194589609960098</v>
+        <v>0.07235211677504376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -9280,19 +9280,19 @@
         <v>3483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1313</v>
+        <v>1481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6912</v>
+        <v>7103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05335930593553016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02011950824173303</v>
+        <v>0.02268076575989808</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1058892834226034</v>
+        <v>0.1088175679934298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -9301,19 +9301,19 @@
         <v>4368</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2225</v>
+        <v>1977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8895</v>
+        <v>9848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03460661790947719</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01762263256349076</v>
+        <v>0.01566399564700216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07046468474449676</v>
+        <v>0.07801815603009757</v>
       </c>
     </row>
     <row r="6">
@@ -9330,7 +9330,7 @@
         <v>60070</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56570</v>
+        <v>56545</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>60955</v>
@@ -9339,7 +9339,7 @@
         <v>0.9854755737701518</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9280541039003991</v>
+        <v>0.9276478832249563</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -9351,19 +9351,19 @@
         <v>60020</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55901</v>
+        <v>55381</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62679</v>
+        <v>62448</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9194754640809604</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8563846768855413</v>
+        <v>0.8484139673539267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9602154844597739</v>
+        <v>0.9566756246632474</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>205</v>
@@ -9372,19 +9372,19 @@
         <v>120089</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115013</v>
+        <v>114306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122791</v>
+        <v>122983</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9513457692310391</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.911128647204706</v>
+        <v>0.9055276171218489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9727469248911704</v>
+        <v>0.9742724395912129</v>
       </c>
     </row>
     <row r="7">
@@ -9476,19 +9476,19 @@
         <v>5610</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1929</v>
+        <v>2743</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11250</v>
+        <v>12193</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06347662763009906</v>
+        <v>0.06347662763009908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02182506510575935</v>
+        <v>0.03103689260829645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1273058029382853</v>
+        <v>0.1379663985713333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -9497,19 +9497,19 @@
         <v>14835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9494</v>
+        <v>9991</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21635</v>
+        <v>21527</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.110104528974706</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07046352542370875</v>
+        <v>0.07415728958704662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1605790283558093</v>
+        <v>0.1597782632673156</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -9518,19 +9518,19 @@
         <v>20444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13573</v>
+        <v>14190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28250</v>
+        <v>28448</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09163495445904474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06083623442520479</v>
+        <v>0.06360090589351211</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1266205057578872</v>
+        <v>0.1275095972022189</v>
       </c>
     </row>
     <row r="9">
@@ -9547,19 +9547,19 @@
         <v>3767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>934</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9489</v>
+        <v>9342</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04262951543053198</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01056800108836424</v>
+        <v>0.01134201394201729</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1073703015199612</v>
+        <v>0.1057078513423577</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -9568,19 +9568,19 @@
         <v>19759</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14447</v>
+        <v>13976</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27547</v>
+        <v>26830</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.146651696109158</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1072309828663216</v>
+        <v>0.1037352824526461</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2044571876644151</v>
+        <v>0.1991389827593105</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -9589,19 +9589,19 @@
         <v>23526</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16443</v>
+        <v>16797</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31447</v>
+        <v>32444</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1054479240773361</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07370078578419849</v>
+        <v>0.07528821711262777</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1409511161907337</v>
+        <v>0.1454189519414167</v>
       </c>
     </row>
     <row r="10">
@@ -9618,19 +9618,19 @@
         <v>78996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72435</v>
+        <v>72509</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83698</v>
+        <v>83619</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.893893856939369</v>
+        <v>0.8938938569393691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.819645156541927</v>
+        <v>0.8204857332732529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9470991634396826</v>
+        <v>0.9462062155982313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -9639,19 +9639,19 @@
         <v>100139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91268</v>
+        <v>91447</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107515</v>
+        <v>107535</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.743243774916136</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6774074697315471</v>
+        <v>0.6787303919099019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7979914252876908</v>
+        <v>0.7981404837674113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -9660,19 +9660,19 @@
         <v>179135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169942</v>
+        <v>168429</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189391</v>
+        <v>188946</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.802917121463619</v>
+        <v>0.8029171214636193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7617129463119305</v>
+        <v>0.754929871794048</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8488879444008165</v>
+        <v>0.8468927085354037</v>
       </c>
     </row>
     <row r="11">
@@ -9764,19 +9764,19 @@
         <v>5390</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2885</v>
+        <v>2849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9683</v>
+        <v>9704</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07456527413536534</v>
+        <v>0.07456527413536533</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03991419699889406</v>
+        <v>0.0394166450429689</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1339555136111231</v>
+        <v>0.1342488588186455</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -9785,19 +9785,19 @@
         <v>7218</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4240</v>
+        <v>4306</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11597</v>
+        <v>11379</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08407984444649688</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04939146532019788</v>
+        <v>0.05015405536225664</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1350871356309023</v>
+        <v>0.1325401993186992</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -9806,19 +9806,19 @@
         <v>12608</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8584</v>
+        <v>8158</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18577</v>
+        <v>18212</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07973064630455665</v>
+        <v>0.07973064630455666</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05428452166119104</v>
+        <v>0.051590150500695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1174768210085933</v>
+        <v>0.1151658569278537</v>
       </c>
     </row>
     <row r="13">
@@ -9835,19 +9835,19 @@
         <v>10422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6347</v>
+        <v>6782</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15301</v>
+        <v>15288</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1441788174110636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08780303104126407</v>
+        <v>0.09382645557515154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2116707684104631</v>
+        <v>0.2114919958449188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -9856,19 +9856,19 @@
         <v>17006</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12362</v>
+        <v>12283</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22345</v>
+        <v>22978</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1980866625709637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1439934955457393</v>
+        <v>0.1430706905228897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2602807259407151</v>
+        <v>0.2676549699475506</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -9877,19 +9877,19 @@
         <v>27428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20285</v>
+        <v>21025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35164</v>
+        <v>34636</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1734448876574778</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1282763600987323</v>
+        <v>0.1329580186155687</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2223663743609067</v>
+        <v>0.2190303299867434</v>
       </c>
     </row>
     <row r="14">
@@ -9906,19 +9906,19 @@
         <v>56473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51166</v>
+        <v>50235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61312</v>
+        <v>61079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7812559084535712</v>
+        <v>0.7812559084535711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7078372917686399</v>
+        <v>0.6949610424241853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8481944117659402</v>
+        <v>0.8449692276926954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -9927,19 +9927,19 @@
         <v>61626</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55006</v>
+        <v>55105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67004</v>
+        <v>67247</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7178334929825394</v>
+        <v>0.7178334929825395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6407172908673593</v>
+        <v>0.6418711549815852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7804806150553928</v>
+        <v>0.7833135393388078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>216</v>
@@ -9948,19 +9948,19 @@
         <v>118099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109346</v>
+        <v>109902</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>125989</v>
+        <v>125497</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7468244660379655</v>
+        <v>0.7468244660379656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6914732151289001</v>
+        <v>0.6949894320457785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7967201121712234</v>
+        <v>0.7936057222873345</v>
       </c>
     </row>
     <row r="15">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4420</v>
+        <v>4847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01646405059417129</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05314961627481508</v>
+        <v>0.05829006306835142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -10073,19 +10073,19 @@
         <v>11584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7976</v>
+        <v>7960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16542</v>
+        <v>16058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1048279964046159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07218248817099493</v>
+        <v>0.07203140671831995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1496973812937135</v>
+        <v>0.1453147162795484</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -10094,19 +10094,19 @@
         <v>12953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8939</v>
+        <v>9026</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18417</v>
+        <v>18921</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06688513968999012</v>
+        <v>0.0668851396899901</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0461576990474994</v>
+        <v>0.04660903704841534</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09510183398460011</v>
+        <v>0.09770158523376875</v>
       </c>
     </row>
     <row r="17">
@@ -10123,19 +10123,19 @@
         <v>4801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2029</v>
+        <v>2039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9030</v>
+        <v>9200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05773395785194917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02439736229517918</v>
+        <v>0.02451690082237619</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1085956502052839</v>
+        <v>0.1106382736229077</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -10144,19 +10144,19 @@
         <v>11152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7917</v>
+        <v>7741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15758</v>
+        <v>15648</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1009189595557348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07164600416815356</v>
+        <v>0.07005280130401088</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1426018958338772</v>
+        <v>0.1416063790245127</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -10165,19 +10165,19 @@
         <v>15953</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11317</v>
+        <v>11293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21870</v>
+        <v>22188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08237562361889697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05843789260962471</v>
+        <v>0.05831384470096105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1129314454096287</v>
+        <v>0.114574297404778</v>
       </c>
     </row>
     <row r="18">
@@ -10194,19 +10194,19 @@
         <v>76986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72310</v>
+        <v>71769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79969</v>
+        <v>80170</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9258019915538797</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8695695834400312</v>
+        <v>0.8630671125709475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9616779750712419</v>
+        <v>0.9640946347323783</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>202</v>
@@ -10215,19 +10215,19 @@
         <v>87768</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>82435</v>
+        <v>82152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93007</v>
+        <v>93160</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7942530440396492</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7459935760327269</v>
+        <v>0.7434321706956599</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8416602740987552</v>
+        <v>0.8430430085074211</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>311</v>
@@ -10236,19 +10236,19 @@
         <v>164754</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157356</v>
+        <v>158032</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>170746</v>
+        <v>171299</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8507392366911128</v>
+        <v>0.850739236691113</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8125365188144231</v>
+        <v>0.8160305271010163</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8816766808274682</v>
+        <v>0.8845346160741111</v>
       </c>
     </row>
     <row r="19">
@@ -10343,16 +10343,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3160</v>
+        <v>3660</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02871901981141673</v>
+        <v>0.02871901981141672</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08657422040351183</v>
+        <v>0.1002764570535182</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -10361,19 +10361,19 @@
         <v>1149</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3522</v>
+        <v>3147</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01881751475012401</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005572115908712909</v>
+        <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05766956273224423</v>
+        <v>0.05152869808023048</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -10382,19 +10382,19 @@
         <v>2198</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4925</v>
+        <v>4898</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02252152501583174</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007808890022611085</v>
+        <v>0.008362569630024186</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05047433261515823</v>
+        <v>0.05019573447412209</v>
       </c>
     </row>
     <row r="21">
@@ -10411,19 +10411,19 @@
         <v>4131</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2081</v>
+        <v>2004</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7486</v>
+        <v>7372</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1131795633903793</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05700614093554626</v>
+        <v>0.05488846240669867</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2050721415461451</v>
+        <v>0.20196164948803</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -10432,19 +10432,19 @@
         <v>10799</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7205</v>
+        <v>7452</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14730</v>
+        <v>15191</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1768082542529844</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.117975307968625</v>
+        <v>0.1220081714309856</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.241172691319747</v>
+        <v>0.2487204146357495</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -10453,19 +10453,19 @@
         <v>14930</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10760</v>
+        <v>10727</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20045</v>
+        <v>19840</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1530056785142752</v>
+        <v>0.1530056785142751</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1102693875263901</v>
+        <v>0.1099279807328197</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2054199620189148</v>
+        <v>0.2033261478547804</v>
       </c>
     </row>
     <row r="22">
@@ -10482,19 +10482,19 @@
         <v>31323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27763</v>
+        <v>27430</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33800</v>
+        <v>33834</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8581014167982041</v>
+        <v>0.8581014167982036</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7605594697974649</v>
+        <v>0.7514447690852133</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9259379023387763</v>
+        <v>0.9268840771728291</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>134</v>
@@ -10503,19 +10503,19 @@
         <v>49128</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44960</v>
+        <v>44807</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52806</v>
+        <v>52735</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8043742309968915</v>
+        <v>0.8043742309968916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7361272574555888</v>
+        <v>0.7336244880086917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8645871523947181</v>
+        <v>0.8634310634045375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>195</v>
@@ -10524,19 +10524,19 @@
         <v>80451</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75429</v>
+        <v>75270</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84957</v>
+        <v>84983</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8244727964698932</v>
+        <v>0.8244727964698931</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7729999631538818</v>
+        <v>0.771370539571599</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8706451019482861</v>
+        <v>0.8709143716323939</v>
       </c>
     </row>
     <row r="23">
@@ -10628,19 +10628,19 @@
         <v>4397</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2368</v>
+        <v>2231</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7548</v>
+        <v>7580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07300637878558916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03932020617294859</v>
+        <v>0.03705183771902816</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1253253326490502</v>
+        <v>0.1258694063719855</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -10649,19 +10649,19 @@
         <v>10292</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7018</v>
+        <v>7091</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14219</v>
+        <v>14502</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1529074623108948</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1042664403121472</v>
+        <v>0.1053463461824302</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2112462201877378</v>
+        <v>0.2154479265815742</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -10670,19 +10670,19 @@
         <v>14689</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10736</v>
+        <v>10808</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19777</v>
+        <v>19687</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1151763372780264</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0841835528498496</v>
+        <v>0.08474379506586108</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1550713688881311</v>
+        <v>0.1543714775343167</v>
       </c>
     </row>
     <row r="25">
@@ -10699,19 +10699,19 @@
         <v>5536</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3261</v>
+        <v>2974</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9094</v>
+        <v>8958</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09192059517430237</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05415416124307761</v>
+        <v>0.04938153080240874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1509989325363595</v>
+        <v>0.1487406698243252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -10720,19 +10720,19 @@
         <v>8400</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5831</v>
+        <v>5642</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12068</v>
+        <v>12306</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1247911662755987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0866258936007584</v>
+        <v>0.08381617475072113</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.17929592540123</v>
+        <v>0.1828326105965969</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -10741,19 +10741,19 @@
         <v>13935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9903</v>
+        <v>10180</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18846</v>
+        <v>18708</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.109268928360865</v>
+        <v>0.1092689283608651</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0776545700315943</v>
+        <v>0.07982205212304862</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1477750248597377</v>
+        <v>0.1466942559930072</v>
       </c>
     </row>
     <row r="26">
@@ -10770,19 +10770,19 @@
         <v>50291</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46181</v>
+        <v>46322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53516</v>
+        <v>53616</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8350730260401085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7668283469947565</v>
+        <v>0.7691643726936042</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.888613672549455</v>
+        <v>0.8902727848401293</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>124</v>
@@ -10791,19 +10791,19 @@
         <v>48617</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43996</v>
+        <v>43984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52728</v>
+        <v>52870</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7223013714135066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.653638026039465</v>
+        <v>0.6534686670597135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7833659664235342</v>
+        <v>0.7854794404101438</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>235</v>
@@ -10812,19 +10812,19 @@
         <v>98908</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93264</v>
+        <v>92941</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>104951</v>
+        <v>104290</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7755547343611086</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7312951409593732</v>
+        <v>0.728769652380594</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8229403360036015</v>
+        <v>0.817755404103745</v>
       </c>
     </row>
     <row r="27">
@@ -10916,19 +10916,19 @@
         <v>3327</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8821</v>
+        <v>8817</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02198446216764657</v>
+        <v>0.02198446216764658</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006306972202006572</v>
+        <v>0.006266167084502554</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05828329603473781</v>
+        <v>0.05825957256581506</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -10937,19 +10937,19 @@
         <v>17105</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12076</v>
+        <v>11274</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24307</v>
+        <v>24995</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1038132111065085</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07328773667583879</v>
+        <v>0.06842492577374468</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1475187595439663</v>
+        <v>0.1516961792124437</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>27</v>
@@ -10958,19 +10958,19 @@
         <v>20432</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13873</v>
+        <v>13300</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28103</v>
+        <v>28877</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06463682140573965</v>
+        <v>0.06463682140573968</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04388783971635073</v>
+        <v>0.04207282734348678</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08890250717946602</v>
+        <v>0.09134972254424449</v>
       </c>
     </row>
     <row r="29">
@@ -10987,19 +10987,19 @@
         <v>6815</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3170</v>
+        <v>2770</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13784</v>
+        <v>13038</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04503294749464695</v>
+        <v>0.04503294749464696</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02094584606005193</v>
+        <v>0.01830502617999556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09108065066613366</v>
+        <v>0.08614809044781471</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>29</v>
@@ -11008,19 +11008,19 @@
         <v>20231</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13751</v>
+        <v>14088</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27491</v>
+        <v>27827</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1227833597903854</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08345375185480924</v>
+        <v>0.08550067604864343</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1668471003927487</v>
+        <v>0.1688823704402927</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>36</v>
@@ -11029,19 +11029,19 @@
         <v>27046</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18625</v>
+        <v>19109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36465</v>
+        <v>37015</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0855595174245551</v>
+        <v>0.08555951742455511</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05891943308236218</v>
+        <v>0.06044955860254544</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1153541340592274</v>
+        <v>0.1170953206799927</v>
       </c>
     </row>
     <row r="30">
@@ -11058,19 +11058,19 @@
         <v>141199</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>133422</v>
+        <v>133844</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146297</v>
+        <v>146085</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9329825903377065</v>
+        <v>0.9329825903377066</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8815975223339625</v>
+        <v>0.8843838022666026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9666705814123135</v>
+        <v>0.9652733120655128</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>189</v>
@@ -11079,19 +11079,19 @@
         <v>127433</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>118892</v>
+        <v>117306</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>135722</v>
+        <v>135813</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7734034291031062</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7215692489027775</v>
+        <v>0.7119446022991709</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8237120975856855</v>
+        <v>0.8242611479588011</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>347</v>
@@ -11100,19 +11100,19 @@
         <v>268632</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>256871</v>
+        <v>257270</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>279405</v>
+        <v>280183</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8498036611697054</v>
+        <v>0.8498036611697052</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8125963308742976</v>
+        <v>0.8138599857602516</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.883882379681584</v>
+        <v>0.8863431214718466</v>
       </c>
     </row>
     <row r="31">
@@ -11207,16 +11207,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5266</v>
+        <v>4420</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.008015294274102833</v>
+        <v>0.008015294274102832</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03219512551131281</v>
+        <v>0.02702642037446865</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -11225,19 +11225,19 @@
         <v>11936</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7100</v>
+        <v>6847</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20543</v>
+        <v>19799</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.05610122704861405</v>
+        <v>0.05610122704861403</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03337130978683212</v>
+        <v>0.03217958929057741</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09655300671411128</v>
+        <v>0.09305295837953628</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -11246,19 +11246,19 @@
         <v>13247</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8091</v>
+        <v>7844</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20863</v>
+        <v>20851</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.03520238462293728</v>
+        <v>0.03520238462293727</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02150005149678762</v>
+        <v>0.02084519205245686</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05544051425466961</v>
+        <v>0.05540706218514272</v>
       </c>
     </row>
     <row r="33">
@@ -11275,19 +11275,19 @@
         <v>11547</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>6803</v>
+        <v>7438</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>17717</v>
+        <v>18297</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07060124503908205</v>
+        <v>0.07060124503908204</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04159397753007488</v>
+        <v>0.04547797233604142</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1083242102351307</v>
+        <v>0.1118735966935509</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>61</v>
@@ -11296,19 +11296,19 @@
         <v>37919</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>28759</v>
+        <v>30136</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>46367</v>
+        <v>46555</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1782169656075028</v>
+        <v>0.1782169656075027</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1351686804792564</v>
+        <v>0.1416391170913574</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2179268456493308</v>
+        <v>0.2188066112192333</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>78</v>
@@ -11317,19 +11317,19 @@
         <v>49466</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>40199</v>
+        <v>38761</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>60884</v>
+        <v>60822</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.131445615715394</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1068203362955787</v>
+        <v>0.1029985935031594</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1617862607563606</v>
+        <v>0.161623044661226</v>
       </c>
     </row>
     <row r="34">
@@ -11346,19 +11346,19 @@
         <v>150696</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>143958</v>
+        <v>143288</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>155510</v>
+        <v>154862</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9213834606868151</v>
+        <v>0.9213834606868149</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8801866499605855</v>
+        <v>0.8760870446919763</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9508166499198535</v>
+        <v>0.9468555378301392</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>266</v>
@@ -11367,19 +11367,19 @@
         <v>162911</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>151861</v>
+        <v>151714</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>172627</v>
+        <v>171804</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.7656818073438834</v>
+        <v>0.7656818073438831</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7137444105877905</v>
+        <v>0.7130556103109217</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8113449911752559</v>
+        <v>0.8074797976281162</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>482</v>
@@ -11388,19 +11388,19 @@
         <v>313608</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>300815</v>
+        <v>300927</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>324115</v>
+        <v>324946</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8333519996616687</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7993578987448459</v>
+        <v>0.7996558398760476</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8612722901809429</v>
+        <v>0.8634815079539909</v>
       </c>
     </row>
     <row r="35">
@@ -11492,19 +11492,19 @@
         <v>22452</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16057</v>
+        <v>15258</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32533</v>
+        <v>32574</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03134012214110667</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02241315628439647</v>
+        <v>0.02129807332991084</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04541174973525572</v>
+        <v>0.0454699012672603</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>140</v>
@@ -11513,19 +11513,19 @@
         <v>75893</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>63457</v>
+        <v>64347</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>90117</v>
+        <v>88694</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08411218148373552</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07032938146989094</v>
+        <v>0.07131602758313424</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09987669705631555</v>
+        <v>0.09829949093453003</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>175</v>
@@ -11534,19 +11534,19 @@
         <v>98345</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>84612</v>
+        <v>84672</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>115820</v>
+        <v>113713</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06075636014868546</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05227232802115744</v>
+        <v>0.05230952761111263</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07155242381346349</v>
+        <v>0.07025075212489014</v>
       </c>
     </row>
     <row r="37">
@@ -11563,19 +11563,19 @@
         <v>47905</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>37796</v>
+        <v>38868</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>59375</v>
+        <v>60810</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06687015455467211</v>
+        <v>0.06687015455467213</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05275914524580293</v>
+        <v>0.05425581938311361</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08288104337646481</v>
+        <v>0.08488359026293332</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>238</v>
@@ -11584,19 +11584,19 @@
         <v>128747</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>114645</v>
+        <v>112600</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>145980</v>
+        <v>144068</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.142690612953625</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1270611392649633</v>
+        <v>0.1247946113587635</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.161790020257741</v>
+        <v>0.159670519634531</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>313</v>
@@ -11605,19 +11605,19 @@
         <v>176652</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>158654</v>
+        <v>157812</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>197691</v>
+        <v>197347</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1091340471882056</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09801456954327405</v>
+        <v>0.09749481886077785</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1221317676151385</v>
+        <v>0.1219186998022161</v>
       </c>
     </row>
     <row r="38">
@@ -11634,19 +11634,19 @@
         <v>646034</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>631350</v>
+        <v>629708</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>658419</v>
+        <v>658014</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9017897233042212</v>
+        <v>0.9017897233042211</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8812931327235176</v>
+        <v>0.8790009370366278</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9190778979066417</v>
+        <v>0.9185124203668305</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1327</v>
@@ -11655,19 +11655,19 @@
         <v>697642</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>677801</v>
+        <v>678459</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>716749</v>
+        <v>714832</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7731972055626395</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7512075302442467</v>
+        <v>0.751936256970811</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7943736089753084</v>
+        <v>0.792249142780095</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2244</v>
@@ -11676,19 +11676,19 @@
         <v>1343676</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1318491</v>
+        <v>1321089</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1366273</v>
+        <v>1367817</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.830109592663109</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8145503534429703</v>
+        <v>0.8161552845150194</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8440700029159615</v>
+        <v>0.8450237546400647</v>
       </c>
     </row>
     <row r="39">
